--- a/Assets/06.Table/TowerTable5.xlsx
+++ b/Assets/06.Table/TowerTable5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4006EB77-5AC6-4E21-81C6-4BB24FEA8974}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6615ED41-AC58-48C2-8E46-3C79A0061B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable5" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -714,11 +714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K61"/>
+  <dimension ref="A1:K67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D52" sqref="D52"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2482,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" ref="F52:F61" si="3">F51*2</f>
+        <f t="shared" ref="F52:F67" si="3">F51*2</f>
         <v>6.8608562918194295E+89</v>
       </c>
       <c r="G52" s="3">
@@ -2776,7 +2776,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C61" s="1">
         <v>43</v>
@@ -2805,9 +2805,177 @@
       </c>
       <c r="K61" s="4"/>
     </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>60</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C62" s="1">
+        <v>43</v>
+      </c>
+      <c r="D62" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>1</v>
+      </c>
+      <c r="F62" s="4">
+        <f t="shared" si="3"/>
+        <v>7.0255168428230958E+92</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>8</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>61</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C63" s="1">
+        <v>43</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E63" s="3">
+        <v>1</v>
+      </c>
+      <c r="F63" s="4">
+        <f t="shared" si="3"/>
+        <v>1.4051033685646192E+93</v>
+      </c>
+      <c r="G63" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H63" s="3">
+        <v>8</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>6060</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>62</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C64" s="1">
+        <v>43</v>
+      </c>
+      <c r="D64" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E64" s="3">
+        <v>1</v>
+      </c>
+      <c r="F64" s="4">
+        <f t="shared" si="3"/>
+        <v>2.8102067371292383E+93</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H64" s="3">
+        <v>8</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
+        <v>6120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>63</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="1">
+        <v>43</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E65" s="3">
+        <v>1</v>
+      </c>
+      <c r="F65" s="4">
+        <f t="shared" si="3"/>
+        <v>5.6204134742584767E+93</v>
+      </c>
+      <c r="G65" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H65" s="3">
+        <v>8</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
+        <v>6180</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>64</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C66" s="1">
+        <v>43</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E66" s="3">
+        <v>1</v>
+      </c>
+      <c r="F66" s="4">
+        <f t="shared" si="3"/>
+        <v>1.1240826948516953E+94</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H66" s="3">
+        <v>8</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>6240</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="F67" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E8 G2:J8 A2:D61">
+  <conditionalFormatting sqref="E2:E8 G2:J8 A2:D66">
     <cfRule type="expression" dxfId="9" priority="67">
       <formula>$C2=5</formula>
     </cfRule>
@@ -2827,12 +2995,12 @@
       <formula>$C12=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:E14 E32:E33 G32:J33 G13:J14 G35:J37 E35:E37 E39:E40 G39:J40 E42 E44 E46 E48 E50 G42:J42 G44:J44 G46:J46 G48:J48 G50:J50 E52 E54 E56 E58 E60 G52:J52 G54:J54 G56:J56 G58:J58 G60:J60">
+  <conditionalFormatting sqref="G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:E14 E32:E33 G32:J33 G13:J14 G35:J37 E35:E37 E39:E40 G39:J40 E42 E44 E46 E48 E50 G42:J42 G44:J44 G46:J46 G48:J48 G50:J50 E52 E54 E56 E58 E60 G52:J52 G54:J54 G56:J56 G58:J58 G60:J60 E62 E64 E66 G62:J62 G64:J64 G66:J66">
     <cfRule type="expression" dxfId="5" priority="11">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15 E34 G34:J34 G15:J15 G38:J38 E38 E41 G41:J41 E43 E45 E47 E49 E51 G43:J43 G45:J45 G47:J47 G49:J49 G51:J51 E53 E55 E57 E59 E61 G53:J53 G55:J55 G57:J57 G59:J59 G61:J61">
+  <conditionalFormatting sqref="G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15 E34 G34:J34 G15:J15 G38:J38 E38 E41 G41:J41 E43 E45 E47 E49 E51 G43:J43 G45:J45 G47:J47 G49:J49 G51:J51 E53 E55 E57 E59 E61 G53:J53 G55:J55 G57:J57 G59:J59 G61:J61 E63 E65 G63:J63 G65:J65">
     <cfRule type="expression" dxfId="4" priority="10">
       <formula>$C15=5</formula>
     </cfRule>
@@ -2847,7 +3015,7 @@
       <formula>$C31=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F61">
+  <conditionalFormatting sqref="F2:F67">
     <cfRule type="expression" dxfId="1" priority="3">
       <formula>$C2=5</formula>
     </cfRule>

--- a/Assets/06.Table/TowerTable5.xlsx
+++ b/Assets/06.Table/TowerTable5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6615ED41-AC58-48C2-8E46-3C79A0061B08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF877B84-C1AE-4B8C-88BB-1A4B298CCE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable5" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -183,29 +183,7 @@
     <cellStyle name="좋음" xfId="1" builtinId="26"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="dashed">
-          <color rgb="FFFF0000"/>
-        </top>
-        <bottom style="dashed">
-          <color rgb="FFFF0000"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <b/>
@@ -714,11 +692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D62" sqref="D62"/>
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2482,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" ref="F52:F67" si="3">F51*2</f>
+        <f t="shared" ref="F52:F73" si="3">F51*2</f>
         <v>6.8608562918194295E+89</v>
       </c>
       <c r="G52" s="3">
@@ -2971,53 +2949,276 @@
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="F67" s="4"/>
+      <c r="A67" s="3">
+        <v>65</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="1">
+        <v>43</v>
+      </c>
+      <c r="D67" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E67" s="3">
+        <v>1</v>
+      </c>
+      <c r="F67" s="4">
+        <f t="shared" si="3"/>
+        <v>2.2481653897033907E+94</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H67" s="3">
+        <v>8</v>
+      </c>
+      <c r="I67" s="3">
+        <v>0</v>
+      </c>
+      <c r="J67" s="3">
+        <v>6300</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>66</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C68" s="1">
+        <v>43</v>
+      </c>
+      <c r="D68" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E68" s="3">
+        <v>1</v>
+      </c>
+      <c r="F68" s="4">
+        <f t="shared" si="3"/>
+        <v>4.4963307794067813E+94</v>
+      </c>
+      <c r="G68" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H68" s="3">
+        <v>8</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <v>6360</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>67</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="1">
+        <v>43</v>
+      </c>
+      <c r="D69" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E69" s="3">
+        <v>1</v>
+      </c>
+      <c r="F69" s="4">
+        <f t="shared" si="3"/>
+        <v>8.9926615588135627E+94</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H69" s="3">
+        <v>8</v>
+      </c>
+      <c r="I69" s="3">
+        <v>0</v>
+      </c>
+      <c r="J69" s="3">
+        <v>6420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>68</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C70" s="1">
+        <v>43</v>
+      </c>
+      <c r="D70" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E70" s="3">
+        <v>1</v>
+      </c>
+      <c r="F70" s="4">
+        <f t="shared" si="3"/>
+        <v>1.7985323117627125E+95</v>
+      </c>
+      <c r="G70" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H70" s="3">
+        <v>8</v>
+      </c>
+      <c r="I70" s="3">
+        <v>0</v>
+      </c>
+      <c r="J70" s="3">
+        <v>6480</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>69</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="1">
+        <v>43</v>
+      </c>
+      <c r="D71" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="E71" s="3">
+        <v>1</v>
+      </c>
+      <c r="F71" s="4">
+        <f t="shared" si="3"/>
+        <v>3.5970646235254251E+95</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H71" s="3">
+        <v>8</v>
+      </c>
+      <c r="I71" s="3">
+        <v>0</v>
+      </c>
+      <c r="J71" s="3">
+        <v>6540</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>70</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="1">
+        <v>43</v>
+      </c>
+      <c r="D72" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1</v>
+      </c>
+      <c r="F72" s="4">
+        <f t="shared" si="3"/>
+        <v>7.1941292470508501E+95</v>
+      </c>
+      <c r="G72" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H72" s="3">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>71</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73" s="1">
+        <v>43</v>
+      </c>
+      <c r="D73" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E73" s="3">
+        <v>1</v>
+      </c>
+      <c r="F73" s="4">
+        <f t="shared" si="3"/>
+        <v>1.43882584941017E+96</v>
+      </c>
+      <c r="G73" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H73" s="3">
+        <v>8</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
+        <v>6660</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E8 G2:J8 A2:D66">
-    <cfRule type="expression" dxfId="9" priority="67">
+  <conditionalFormatting sqref="E2:E8 G2:J8 F2:F73 A2:D73">
+    <cfRule type="expression" dxfId="8" priority="67">
       <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E10 G9:J10">
-    <cfRule type="expression" dxfId="8" priority="14">
+    <cfRule type="expression" dxfId="7" priority="14">
       <formula>$C9=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11 G11:J11">
-    <cfRule type="expression" dxfId="7" priority="13">
+    <cfRule type="expression" dxfId="6" priority="13">
       <formula>$C11=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E12 G12:J12">
-    <cfRule type="expression" dxfId="6" priority="12">
+    <cfRule type="expression" dxfId="5" priority="12">
       <formula>$C12=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:E14 E32:E33 G32:J33 G13:J14 G35:J37 E35:E37 E39:E40 G39:J40 E42 E44 E46 E48 E50 G42:J42 G44:J44 G46:J46 G48:J48 G50:J50 E52 E54 E56 E58 E60 G52:J52 G54:J54 G56:J56 G58:J58 G60:J60 E62 E64 E66 G62:J62 G64:J64 G66:J66">
-    <cfRule type="expression" dxfId="5" priority="11">
+  <conditionalFormatting sqref="G17:J18 G21:J22 G25:J26 G29:J30 E29:E30 E25:E26 E21:E22 E17:E18 E13:E14 E32:E33 G32:J33 G13:J14 G35:J37 E35:E37 E39:E40 G39:J40 E42 E44 E46 E48 E50 G42:J42 G44:J44 G46:J46 G48:J48 G50:J50 E52 E54 E56 E58 E60 G52:J52 G54:J54 G56:J56 G58:J58 G60:J60 E62 E64 G62:J62 G64:J64">
+    <cfRule type="expression" dxfId="4" priority="11">
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15 E34 G34:J34 G15:J15 G38:J38 E38 E41 G41:J41 E43 E45 E47 E49 E51 G43:J43 G45:J45 G47:J47 G49:J49 G51:J51 E53 E55 E57 E59 E61 G53:J53 G55:J55 G57:J57 G59:J59 G61:J61 E63 E65 G63:J63 G65:J65">
-    <cfRule type="expression" dxfId="4" priority="10">
+  <conditionalFormatting sqref="G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15 E34 G34:J34 G15:J15 G38:J38 E38 E41 G41:J41 E43 E45 E47 E49 E51 G43:J43 G45:J45 G47:J47 G49:J49 G51:J51 E53 E55 E57 E59 E61 G53:J53 G55:J55 G57:J57 G59:J59 G61:J61 E63 G63:J63 E65:E73 G65:J73">
+    <cfRule type="expression" dxfId="3" priority="10">
       <formula>$C15=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20:J20 G24:J24 G28:J28 E28 E24 E20 E16 G16:J16">
-    <cfRule type="expression" dxfId="3" priority="9">
+    <cfRule type="expression" dxfId="2" priority="9">
       <formula>$C16=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O31">
-    <cfRule type="expression" dxfId="2" priority="4">
+    <cfRule type="expression" dxfId="1" priority="4">
       <formula>$C31=5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F67">
-    <cfRule type="expression" dxfId="1" priority="3">
-      <formula>$C2=5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K61">

--- a/Assets/06.Table/TowerTable5.xlsx
+++ b/Assets/06.Table/TowerTable5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF877B84-C1AE-4B8C-88BB-1A4B298CCE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEE2DCA3-DD12-4AAF-8D1C-EA339363487F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="TowerTable5" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="12">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -692,11 +692,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:K73"/>
+  <dimension ref="A1:K77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D73" sqref="D73"/>
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2460,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="F52" s="4">
-        <f t="shared" ref="F52:F73" si="3">F51*2</f>
+        <f t="shared" ref="F52:F77" si="3">F51*2</f>
         <v>6.8608562918194295E+89</v>
       </c>
       <c r="G52" s="3">
@@ -3179,9 +3179,141 @@
         <v>6660</v>
       </c>
     </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>72</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C74" s="1">
+        <v>43</v>
+      </c>
+      <c r="D74" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E74" s="3">
+        <v>1</v>
+      </c>
+      <c r="F74" s="4">
+        <f t="shared" si="3"/>
+        <v>2.8776516988203401E+96</v>
+      </c>
+      <c r="G74" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H74" s="3">
+        <v>8</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3">
+        <v>6720</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>73</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C75" s="1">
+        <v>43</v>
+      </c>
+      <c r="D75" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E75" s="3">
+        <v>1</v>
+      </c>
+      <c r="F75" s="4">
+        <f t="shared" si="3"/>
+        <v>5.7553033976406801E+96</v>
+      </c>
+      <c r="G75" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H75" s="3">
+        <v>8</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <v>6780</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>74</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1">
+        <v>43</v>
+      </c>
+      <c r="D76" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1</v>
+      </c>
+      <c r="F76" s="4">
+        <f t="shared" si="3"/>
+        <v>1.151060679528136E+97</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>8</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>75</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C77" s="1">
+        <v>43</v>
+      </c>
+      <c r="D77" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="E77" s="3">
+        <v>1</v>
+      </c>
+      <c r="F77" s="4">
+        <f t="shared" si="3"/>
+        <v>2.302121359056272E+97</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H77" s="3">
+        <v>8</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>6900</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="E2:E8 G2:J8 F2:F73 A2:D73">
+  <conditionalFormatting sqref="E2:E8 G2:J8 F2:F77 A2:D77">
     <cfRule type="expression" dxfId="8" priority="67">
       <formula>$C2=5</formula>
     </cfRule>
@@ -3206,7 +3338,7 @@
       <formula>$C13=5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15 E34 G34:J34 G15:J15 G38:J38 E38 E41 G41:J41 E43 E45 E47 E49 E51 G43:J43 G45:J45 G47:J47 G49:J49 G51:J51 E53 E55 E57 E59 E61 G53:J53 G55:J55 G57:J57 G59:J59 G61:J61 E63 G63:J63 E65:E73 G65:J73">
+  <conditionalFormatting sqref="G19:J19 G23:J23 G27:J27 G31:J31 E31 E27 E23 E19 E15 E34 G34:J34 G15:J15 G38:J38 E38 E41 G41:J41 E43 E45 E47 E49 E51 G43:J43 G45:J45 G47:J47 G49:J49 G51:J51 E53 E55 E57 E59 E61 G53:J53 G55:J55 G57:J57 G59:J59 G61:J61 E63 G63:J63 E65:E77 G65:J77">
     <cfRule type="expression" dxfId="3" priority="10">
       <formula>$C15=5</formula>
     </cfRule>
